--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4028118.484704371</v>
+        <v>4025626.535380531</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>299.0557466164357</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234415</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607314</v>
+        <v>62.22601572607282</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>175.1054309585937</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76315404194781</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>53.40937271891026</v>
       </c>
       <c r="H3" t="n">
         <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031474</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870473</v>
+        <v>53.80849853870455</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799449</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486215</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.7554689484521</v>
+        <v>33.75546894845191</v>
       </c>
       <c r="R4" t="n">
-        <v>83.19940428928665</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>213.8827539724758</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>324.1159635568322</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>310.1879213912958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1032,7 +1032,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>162.260596696637</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>60.91731084343977</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>244.7588163125935</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>59.10511252825227</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>33.93419857067637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.3649143344086</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0573374602124</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881287</v>
@@ -1436,7 +1436,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>61.66004604094821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187867</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.2409687174131</v>
@@ -1673,7 +1673,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>124.4121185570306</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>180.9726497471655</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187867</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>22.44547853568606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X20" t="n">
         <v>369.7311006784691</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>178.5134655978075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>81.11398998229724</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560548</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>38.61213096654814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957386</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.594095449514675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319671</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444138</v>
@@ -3092,7 +3092,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784701</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986223</v>
       </c>
       <c r="V34" t="n">
-        <v>80.70399854268017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4021082756243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,22 +3554,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>93.07916359105458</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258334</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060141</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>139.5986654064068</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.76189317295234</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1163.990408673126</v>
+        <v>1331.827756190668</v>
       </c>
       <c r="C2" t="n">
-        <v>861.9138969393525</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="D2" t="n">
-        <v>861.9138969393525</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="E2" t="n">
-        <v>476.1256443411083</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="F2" t="n">
-        <v>65.13973955150081</v>
+        <v>955.9197385010532</v>
       </c>
       <c r="G2" t="n">
-        <v>51.09175193297136</v>
+        <v>537.8313468421197</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297136</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710328</v>
+        <v>156.4961545710332</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004996</v>
+        <v>435.2148351005007</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311617</v>
+        <v>833.2666318311635</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537221</v>
+        <v>1292.782497537224</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813638</v>
+        <v>1745.101812813641</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132806</v>
+        <v>2127.02647813281</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935759</v>
+        <v>2415.315960935764</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648568</v>
+        <v>2554.587596648574</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309101</v>
+        <v>2491.733035309107</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309101</v>
+        <v>2312.716599815397</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309101</v>
+        <v>2093.536568266165</v>
       </c>
       <c r="U2" t="n">
-        <v>2237.961283262623</v>
+        <v>1839.764816219687</v>
       </c>
       <c r="V2" t="n">
-        <v>1906.898395919052</v>
+        <v>1508.701928876117</v>
       </c>
       <c r="W2" t="n">
-        <v>1554.129740648938</v>
+        <v>1331.827756190668</v>
       </c>
       <c r="X2" t="n">
-        <v>1554.129740648938</v>
+        <v>1331.827756190668</v>
       </c>
       <c r="Y2" t="n">
-        <v>1163.990408673126</v>
+        <v>1331.827756190668</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777497</v>
+        <v>840.286623877756</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966227</v>
+        <v>665.833594596629</v>
       </c>
       <c r="D3" t="n">
-        <v>516.8991849353714</v>
+        <v>516.8991849353778</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>357.6617299299223</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>211.1271719568072</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>157.1783106245747</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297136</v>
+        <v>120.1765123687507</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7339934539334</v>
+        <v>364.8742147270538</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335526</v>
+        <v>598.1646481335553</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360701</v>
+        <v>1105.758028360704</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358676</v>
+        <v>1642.492908358681</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635548</v>
+        <v>2067.084785635553</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.85413215396</v>
+        <v>2390.854132153966</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648568</v>
+        <v>2554.587596648574</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922604</v>
+        <v>2500.23557792261</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973165</v>
+        <v>2340.824460973171</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257385</v>
+        <v>2141.677234257392</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828249</v>
+        <v>1913.503224828255</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596506</v>
+        <v>1678.351116596512</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868304</v>
+        <v>1424.113759868311</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662772</v>
+        <v>1216.262259662778</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897818</v>
+        <v>1008.501960897824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771856</v>
+        <v>101.0304570771859</v>
       </c>
       <c r="L4" t="n">
-        <v>220.461240970326</v>
+        <v>220.4612409703267</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486081</v>
+        <v>356.7733802486092</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493178</v>
+        <v>495.2789379493192</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455615</v>
+        <v>607.1949427455633</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071376</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258729</v>
+        <v>645.3413034258749</v>
       </c>
       <c r="R4" t="n">
-        <v>561.3015011134621</v>
+        <v>494.6819017364949</v>
       </c>
       <c r="S4" t="n">
-        <v>561.3015011134621</v>
+        <v>494.6819017364949</v>
       </c>
       <c r="T4" t="n">
-        <v>561.3015011134621</v>
+        <v>267.1349377637551</v>
       </c>
       <c r="U4" t="n">
-        <v>561.3015011134621</v>
+        <v>267.1349377637551</v>
       </c>
       <c r="V4" t="n">
-        <v>561.3015011134621</v>
+        <v>267.1349377637551</v>
       </c>
       <c r="W4" t="n">
-        <v>271.8843310765014</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="X4" t="n">
-        <v>271.8843310765014</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.09175193297136</v>
+        <v>51.09175193297148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.76888291502</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="C5" t="n">
-        <v>1151.76888291502</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5031843082697</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="E5" t="n">
         <v>793.5031843082697</v>
@@ -4565,22 +4565,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>87.12728322041738</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>490.5943962404629</v>
+        <v>184.058618140735</v>
       </c>
       <c r="L5" t="n">
-        <v>1043.407654486662</v>
+        <v>736.8718763869342</v>
       </c>
       <c r="M5" t="n">
-        <v>1675.125465469974</v>
+        <v>923.5712892123419</v>
       </c>
       <c r="N5" t="n">
-        <v>1869.459678361956</v>
+        <v>1550.878957272188</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4601,16 +4601,16 @@
         <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164695</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.555773894581</v>
+        <v>1507.49288655101</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.090015633501</v>
+        <v>1507.49288655101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1151.76888291502</v>
+        <v>1507.49288655101</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4644,22 +4644,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>248.1607499648568</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>752.5222898309754</v>
       </c>
       <c r="M6" t="n">
-        <v>1519.21571451897</v>
+        <v>932.0196261855803</v>
       </c>
       <c r="N6" t="n">
-        <v>2153.394698298008</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>2312.907010966769</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
         <v>2539.602387198178</v>
@@ -4680,16 +4680,16 @@
         <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.7156067115058</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7794237835988</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5522713397128</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>536.4000949173926</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="V7" t="n">
-        <v>281.7156067115058</v>
+        <v>447.8431824706371</v>
       </c>
       <c r="W7" t="n">
-        <v>281.7156067115058</v>
+        <v>447.8431824706371</v>
       </c>
       <c r="X7" t="n">
-        <v>281.7156067115058</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.7156067115058</v>
+        <v>219.8536315726197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.9105847575083</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2502.637194533234</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1896.2874785273</v>
       </c>
       <c r="X8" t="n">
-        <v>1590.649756797442</v>
+        <v>1522.82172026622</v>
       </c>
       <c r="Y8" t="n">
-        <v>1200.51042482163</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>721.9082577993004</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>552.9720748713935</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>402.8554354590577</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1124.34930177307</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1124.34930177307</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>903.5567226295401</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5027,46 +5027,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327638</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048568</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>444.701316492521</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036844</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057739</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057739</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630037</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459577</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180507</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057149</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>301.5721730233216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>301.5721730233216</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761976</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>489.836033045444</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213089</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9229991561132</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491255</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429802</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111708</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6740,10 +6740,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290468</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1606.866663407555</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1317.449493370594</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1089.459942472577</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>868.6673633290468</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,46 +7160,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032925</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909568</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>187.8360202106533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>187.8360202106533</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7412,40 +7412,40 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>302.4387812932954</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7670,19 +7670,19 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647281</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>800.5007694647281</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>650.3841300523924</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164219</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.5203270758709</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>212.112849067986</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>14.79418854447573</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>29.30750202500631</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>10.75443623899095</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1977259637479</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-6.762038464916634e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.77391660562108</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>15.88259428919341</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>264.077519800905</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>73.62417772602052</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.31997266427193</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408524</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460207</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893819</v>
       </c>
       <c r="V34" t="n">
-        <v>171.4336447811478</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.62417772602025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.21554925516928</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562246</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>146.5858089828373</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.67206947361683</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900056</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900058</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.074616194</v>
+        <v>548460.0746161959</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299294</v>
+        <v>225009.9816299277</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843794</v>
+        <v>167098.1292843799</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243606232</v>
+        <v>498.7619243602335</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.029397913379815e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.361919807</v>
+        <v>247452.3619198066</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719546</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719547</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.36846171964</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719641</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719638</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719585</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719646</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719585</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719585</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719593</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719614</v>
+        <v>7507.368461719676</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.3137194601</v>
+        <v>80023.31371946022</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54893.98039117799</v>
+        <v>-54893.9803911791</v>
       </c>
       <c r="C6" t="n">
-        <v>312206.2167951498</v>
+        <v>312206.2167951514</v>
       </c>
       <c r="D6" t="n">
         <v>303305.1243546678</v>
       </c>
       <c r="E6" t="n">
-        <v>191031.259779833</v>
+        <v>190996.5218543972</v>
       </c>
       <c r="F6" t="n">
-        <v>698516.7014043794</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="G6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="H6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="I6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789432</v>
       </c>
       <c r="J6" t="n">
-        <v>531418.57212</v>
+        <v>531383.8341945638</v>
       </c>
       <c r="K6" t="n">
-        <v>698017.9394800187</v>
+        <v>697983.2015545837</v>
       </c>
       <c r="L6" t="n">
-        <v>698516.7014043794</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="M6" t="n">
-        <v>565909.4076754525</v>
+        <v>565874.6697500168</v>
       </c>
       <c r="N6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="O6" t="n">
-        <v>698516.7014043793</v>
+        <v>698481.963478944</v>
       </c>
       <c r="P6" t="n">
-        <v>698516.7014043798</v>
+        <v>698481.9634789436</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981737</v>
+        <v>347.0634059817383</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621421</v>
+        <v>638.6468991621435</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.184639007818957e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.286747391724769e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981737</v>
+        <v>347.0634059817383</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563281</v>
+        <v>246.4126943563268</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621421</v>
+        <v>638.6468991621435</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937896798</v>
+        <v>1.937932937895312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621418</v>
+        <v>638.6468991621439</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896798</v>
+        <v>1.937932937895084</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.184639007818957e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621421</v>
+        <v>638.6468991621435</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896798</v>
+        <v>1.937932937895312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>66.21714515457182</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548846</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387726</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>174.1355377588193</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8819264134531</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>83.18763070313213</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031464</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601756</v>
+        <v>49.11144063601739</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>65.9534033831997</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>72.64024436411523</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>57.8144065154296</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.0500172647578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>70.53999045278832</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>87.69816217477259</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>7.378827011234478</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>147.5530724519815</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>335.7969021077927</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>110.0690483121606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.52731589188241</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.834770068289559e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-9.852353093509555e-16</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>-6.029462643449992e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.261606582749895e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-3.143706684192674e-14</v>
+        <v>-6.029462643449992e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.029462643449992e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,10 +29326,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29338,10 +29338,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.221555270729305e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29758,10 +29758,10 @@
         <v>-6.436047097567693e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>-6.436047097567693e-14</v>
@@ -29812,10 +29812,10 @@
         <v>-6.436047097567693e-14</v>
       </c>
       <c r="X32" t="n">
+        <v>-1.028473857802275e-12</v>
+      </c>
+      <c r="Y32" t="n">
         <v>-6.436047097567693e-14</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.166808073631175e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30223,19 +30223,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,22 +30274,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790901</v>
+        <v>1.395229772790907</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059482</v>
+        <v>14.28889691059488</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552128</v>
+        <v>53.78959581552148</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284119</v>
+        <v>118.4183829284123</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106508</v>
+        <v>177.4784592106514</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697004</v>
+        <v>220.1777223697012</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415705</v>
+        <v>244.9901398415715</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335127</v>
+        <v>248.9543364335136</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803232</v>
+        <v>235.0805203803241</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645478</v>
+        <v>200.6357853645485</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264736</v>
+        <v>150.6691191264741</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507654</v>
+        <v>87.64310221507687</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7937984474727</v>
+        <v>31.79379844747282</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392174</v>
+        <v>6.107618330392197</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232721</v>
+        <v>0.1116183818232725</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682645</v>
+        <v>0.7465137411682673</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809292</v>
+        <v>7.20975113180932</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110034</v>
+        <v>25.70233714110044</v>
       </c>
       <c r="J3" t="n">
-        <v>70.5291776250245</v>
+        <v>70.52917762502477</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832982</v>
+        <v>120.5455982832987</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426971</v>
+        <v>162.0884331426977</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600466</v>
+        <v>189.1495562600473</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821795</v>
+        <v>194.1557821821802</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857668</v>
+        <v>177.6146092857675</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323855</v>
+        <v>142.5513827323861</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351391</v>
+        <v>95.29182422351427</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393841</v>
+        <v>46.34933561393858</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389297</v>
+        <v>13.86616532389303</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200153</v>
+        <v>3.008974246200164</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0491127461294911</v>
+        <v>0.04911274612949129</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625852043573624</v>
+        <v>0.6258520435736263</v>
       </c>
       <c r="H4" t="n">
-        <v>5.56439362377277</v>
+        <v>5.564393623772792</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946863</v>
+        <v>18.8210778194687</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065521</v>
+        <v>44.24773948065538</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519012</v>
+        <v>72.71262833519039</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730044</v>
+        <v>93.04713018730079</v>
       </c>
       <c r="M4" t="n">
-        <v>98.1051526121818</v>
+        <v>98.10515261218217</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886201</v>
+        <v>95.77243135886236</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711555</v>
+        <v>88.46134157711587</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821356</v>
+        <v>75.69395988821384</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324229</v>
+        <v>52.40657430324248</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468312</v>
+        <v>28.14058370468323</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027852</v>
+        <v>10.90689425027856</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67409509526912</v>
+        <v>2.67409509526913</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492499</v>
+        <v>0.03413738419492512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,28 +31844,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>162.5000833330446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523446</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>251.8861049150245</v>
+        <v>728.6709493241812</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>414.9172504145579</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,22 +33257,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>258.3858318060501</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,28 +33968,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>553.3925020622929</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N42" t="n">
-        <v>344.2757660550394</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34442,22 +34442,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737994</v>
+        <v>106.4690935737998</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368349</v>
+        <v>281.5340207368356</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501636</v>
+        <v>402.0725219501644</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071303</v>
+        <v>464.1574401071313</v>
       </c>
       <c r="N2" t="n">
-        <v>456.888197248906</v>
+        <v>456.8881972489069</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213818</v>
+        <v>385.7824902213827</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807609</v>
+        <v>291.2014977807617</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119288</v>
+        <v>140.6784199119293</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.78258629876692</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2244863848101</v>
+        <v>247.1693963215183</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662821</v>
+        <v>235.6469024308095</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880282</v>
+        <v>512.720586088029</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444423997</v>
+        <v>542.1564444424005</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180519</v>
+        <v>428.8806841180526</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579925</v>
+        <v>327.039743957993</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733415</v>
+        <v>165.3873378733418</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930727</v>
+        <v>50.44313650930754</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476166</v>
+        <v>120.6371554476169</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740224</v>
+        <v>137.6890295740228</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380906</v>
+        <v>139.9046037380909</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911552</v>
+        <v>113.0464694911555</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310704</v>
+        <v>72.97251915310733</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.24292591152957</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>112.7046278579279</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>79.04516317167482</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>228.985228516575</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94570355317044</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790018</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>120.5443928316912</v>
+        <v>597.3292372408479</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>283.5755383312245</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
         <v>735.300110790295</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>120.5443928316911</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37154,16 +37154,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>414.8381222824187</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N42" t="n">
-        <v>212.9340539717061</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
